--- a/artfynd/A 32985-2023.xlsx
+++ b/artfynd/A 32985-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,6 +818,136 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112564182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>103742</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>340</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ryl</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Chimaphila umbellata</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Näset, 450 m SSV om, Sm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>542782</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6404993</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Vimmerby</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Södra Vi</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Hf-Vim-1025</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Sören Mjösberg</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Åke Rühling</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Via Åke Rühling</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
